--- a/user-data/uganda-household-water-coverage/uganda-household-water-coverage.xlsx
+++ b/user-data/uganda-household-water-coverage/uganda-household-water-coverage.xlsx
@@ -724,7 +724,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 30</t>
+    <t xml:space="preserve">Source: 31</t>
   </si>
   <si>
     <t xml:space="preserve"/>
